--- a/tabular/eve/circoviridae/ecv-cyclo-refseqs-side-data.xlsx
+++ b/tabular/eve/circoviridae/ecv-cyclo-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/circoviridae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E37DA8-2724-484B-9CD3-C24B38C06B7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D0446-1E2F-B045-B590-259A3E289ED3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="1900" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28500" yWindow="4480" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>name</t>
   </si>
@@ -93,10 +93,19 @@
     <t>REF_ECV-Cyclo.1-Varroa</t>
   </si>
   <si>
-    <t>Endogenous circoviral element cyclo.2-pseudomyrmex consensus sequence</t>
-  </si>
-  <si>
     <t>REF_ECV-Cyclo.2-Pseudomyrmex</t>
+  </si>
+  <si>
+    <t>ecv-cyclo.3-tropileilaps-con</t>
+  </si>
+  <si>
+    <t>REF_ECV-Cyclo.3-Tropileilaps</t>
+  </si>
+  <si>
+    <t>Endogenous circoviral element cyclo.2-pseudomyrmex gracilis consensus sequence</t>
+  </si>
+  <si>
+    <t>Endogenous circoviral element cyclo.2-pseudomyrmex mercedesae consensus sequence</t>
   </si>
 </sst>
 </file>
@@ -1361,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1372,13 +1381,13 @@
     <col min="1" max="1" width="37.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35" style="2" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="85.33203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="24.1640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="15.83203125" style="2" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
@@ -1446,7 +1455,9 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
       <c r="I2" s="3">
         <v>1</v>
       </c>
@@ -1474,10 +1485,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>7</v>
@@ -1485,7 +1496,9 @@
       <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
       <c r="I3" s="3">
         <v>1</v>
       </c>
@@ -1499,6 +1512,47 @@
         <v>1</v>
       </c>
       <c r="M3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
         <v>1</v>
       </c>
     </row>

--- a/tabular/eve/circoviridae/ecv-cyclo-refseqs-side-data.xlsx
+++ b/tabular/eve/circoviridae/ecv-cyclo-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/circoviridae/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272D0446-1E2F-B045-B590-259A3E289ED3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771178D6-4C06-F948-A289-79012FA6F78D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28500" yWindow="4480" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="1320" windowWidth="28040" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1372,8 +1372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="A1:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1452,7 @@
       <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="3">
@@ -1493,7 +1493,7 @@
       <c r="F3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H3" s="3">
@@ -1534,7 +1534,7 @@
       <c r="F4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H4" s="3">
